--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1,29 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\models\financial-models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E8C7D3-1A92-40AF-BC14-82EA296D0E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-72" yWindow="852" windowWidth="16752" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Universe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">GOOG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Cap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash </t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV </t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD </t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>E 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCF 2022 </t>
+  </si>
+  <si>
+    <t>EV/FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated </t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +151,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +188,265 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="J4">
+            <v>104.36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>1336538.52</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>144254</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>14701</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>1206985.52</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="24">
+          <cell r="S24">
+            <v>59972</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="S109">
+            <v>60010</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="I4">
+            <v>202.16</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>524128.01102368004</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>46939</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>9923</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>487112.01102368004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="S19">
+            <v>23199</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="S95">
+            <v>19044</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="L4">
+            <v>98.7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>1011404.5380159001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>70026</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>67150</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>1008528.5380159001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="18">
+          <cell r="R18">
+            <v>-2722</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="R82">
+            <v>-16893</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="J4">
+            <v>158.93</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>2514581.8777800002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>165450</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>111110</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>2460241.8777800002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="25">
+          <cell r="R25">
+            <v>99803</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="L5">
+            <v>277.66000000000003</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>2066846.4889727803</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>99508</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>48116</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="L10">
+            <v>2015454.4889727803</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +711,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>[1]Main!$J$4</f>
+        <v>104.36</v>
+      </c>
+      <c r="D3" s="3">
+        <f>[1]Main!$J$6</f>
+        <v>1336538.52</v>
+      </c>
+      <c r="E3" s="3">
+        <f>[1]Main!$J$7</f>
+        <v>144254</v>
+      </c>
+      <c r="F3" s="3">
+        <f>[1]Main!$J$8</f>
+        <v>14701</v>
+      </c>
+      <c r="G3" s="3">
+        <f>[1]Main!$J$9</f>
+        <v>1206985.52</v>
+      </c>
+      <c r="H3" s="3">
+        <f>[1]Model!$S$24</f>
+        <v>59972</v>
+      </c>
+      <c r="I3" s="6">
+        <f>G3/H3</f>
+        <v>20.125817381444673</v>
+      </c>
+      <c r="J3" s="3">
+        <f>[1]Model!$S$109</f>
+        <v>60010</v>
+      </c>
+      <c r="K3" s="6">
+        <f>G3/J3</f>
+        <v>20.113073154474254</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>[2]Main!$I$4</f>
+        <v>202.16</v>
+      </c>
+      <c r="D4" s="3">
+        <f>[2]Main!$I$6</f>
+        <v>524128.01102368004</v>
+      </c>
+      <c r="E4" s="3">
+        <f>[2]Main!$I$7</f>
+        <v>46939</v>
+      </c>
+      <c r="F4" s="3">
+        <f>[2]Main!$I$8</f>
+        <v>9923</v>
+      </c>
+      <c r="G4" s="3">
+        <f>[2]Main!$I$9</f>
+        <v>487112.01102368004</v>
+      </c>
+      <c r="H4" s="3">
+        <f>[2]Model!$S$19</f>
+        <v>23199</v>
+      </c>
+      <c r="I4" s="6">
+        <f>G4/H4</f>
+        <v>20.997112419659469</v>
+      </c>
+      <c r="J4" s="3">
+        <f>[2]Model!$S$95</f>
+        <v>19044</v>
+      </c>
+      <c r="K4" s="6">
+        <f>G4/J4</f>
+        <v>25.578240444427642</v>
+      </c>
+      <c r="L4" s="7">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <f>[3]Main!$L$4</f>
+        <v>98.7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>[3]Main!$L$6</f>
+        <v>1011404.5380159001</v>
+      </c>
+      <c r="E5" s="3">
+        <f>[3]Main!$L$7</f>
+        <v>70026</v>
+      </c>
+      <c r="F5" s="3">
+        <f>[3]Main!$L$8</f>
+        <v>67150</v>
+      </c>
+      <c r="G5" s="3">
+        <f>[3]Main!$L$9</f>
+        <v>1008528.5380159001</v>
+      </c>
+      <c r="H5" s="3">
+        <f>[3]Model!$R$18</f>
+        <v>-2722</v>
+      </c>
+      <c r="I5" s="6">
+        <f>G5/H5</f>
+        <v>-370.51011683170464</v>
+      </c>
+      <c r="J5" s="3">
+        <f>[3]Model!$R$82</f>
+        <v>-16893</v>
+      </c>
+      <c r="K5" s="6">
+        <f>G5/J5</f>
+        <v>-59.700973066708109</v>
+      </c>
+      <c r="L5" s="7">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <f>[4]Main!$J$4</f>
+        <v>158.93</v>
+      </c>
+      <c r="D6" s="3">
+        <f>[4]Main!$J$6</f>
+        <v>2514581.8777800002</v>
+      </c>
+      <c r="E6" s="3">
+        <f>[4]Main!$J$7</f>
+        <v>165450</v>
+      </c>
+      <c r="F6" s="3">
+        <f>[4]Main!$J$8</f>
+        <v>111110</v>
+      </c>
+      <c r="G6" s="3">
+        <f>[4]Main!$J$9</f>
+        <v>2460241.8777800002</v>
+      </c>
+      <c r="H6" s="3">
+        <f>[4]Model!$R$25</f>
+        <v>99803</v>
+      </c>
+      <c r="I6" s="6">
+        <f>G6/H6</f>
+        <v>24.65098121078525</v>
+      </c>
+      <c r="L6" s="7">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>[5]Main!$L$5</f>
+        <v>277.66000000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <f>[5]Main!$L$7</f>
+        <v>2066846.4889727803</v>
+      </c>
+      <c r="E7" s="3">
+        <f>[5]Main!$L$8</f>
+        <v>99508</v>
+      </c>
+      <c r="F7" s="3">
+        <f>[5]Main!$L$9</f>
+        <v>48116</v>
+      </c>
+      <c r="G7" s="3">
+        <f>[5]Main!$L$10</f>
+        <v>2015454.4889727803</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{727DBC40-D724-4910-92FD-461C5167CF9C}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{853C82F7-530E-4CA1-8F6D-E48D9CAF7393}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{FAFC8AF9-EF10-44B2-95AB-7DAA81AC3AA3}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{613A8C9F-35E8-4481-86CA-71D8CDC61513}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{D74C5D8A-CFEF-4A8A-B7DE-0E10F967A9CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>